--- a/imported_test_upload.xlsx
+++ b/imported_test_upload.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="true" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8BD450D-126E-4044-94DF-E378737B10DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="21260" windowHeight="14960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,11 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <r>
-      <t>description</t>
-    </r>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>description</t>
   </si>
   <si>
     <r>
@@ -27,27 +26,45 @@
     <r>
       <rPr>
         <b/>
-        <color/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>in đậm</t>
     </r>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve">, test này là </t>
     </r>
     <r>
       <rPr>
         <i/>
-        <color/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">in nghiệm, </t>
     </r>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve">test này là </t>
     </r>
     <r>
       <rPr>
-        <color/>
-        <u val="single"/>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>underline</t>
     </r>
@@ -59,7 +76,9 @@
     <r>
       <rPr>
         <i/>
-        <color/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>in nghiệm</t>
     </r>
@@ -70,16 +89,16 @@
     </r>
     <r>
       <rPr>
-        <color/>
-        <u val="single"/>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>underline</t>
     </r>
   </si>
   <si>
-    <r>
-      <t>text này là double underline</t>
-    </r>
+    <t>text này là double underline</t>
   </si>
   <si>
     <r>
@@ -89,7 +108,9 @@
       <rPr>
         <b/>
         <i/>
-        <color/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>in đâm vừa in nghiêm</t>
     </r>
@@ -102,15 +123,19 @@
       <rPr>
         <b/>
         <i/>
-        <color/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <color/>
-        <u val="single"/>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>in đậm vừa underline</t>
     </r>
@@ -122,8 +147,10 @@
     <r>
       <rPr>
         <i/>
-        <color/>
-        <u val="single"/>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>italic vừa underline</t>
     </r>
@@ -136,21 +163,193 @@
       <rPr>
         <b/>
         <i/>
-        <color/>
-        <u val="single"/>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>3 thứ</t>
+    </r>
+  </si>
+  <si>
+    <t>đây là chỗ có xuống dòng
+dòng 1
+dòng 2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">đây là chỗ có xuống dòng in nghiêng, in đâm và underline
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>dòng 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>dòng 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>dòng 3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">đây là chỗ có xuống dòng in nghiêng, in đâm và underline
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>dòng 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>dòng 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">dòng 3
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>dòng 4</t>
     </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -182,12 +381,20 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -443,58 +650,76 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/imported_test_upload.xlsx
+++ b/imported_test_upload.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8BD450D-126E-4044-94DF-E378737B10DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="true" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="21260" windowHeight="14960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,341 +14,344 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <r>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <r>
+      <rPr>
+        <color/>
+      </rPr>
+      <t>description</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color/>
+      </rPr>
       <t xml:space="preserve">test này là </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <color/>
       </rPr>
       <t>in đậm</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <color/>
       </rPr>
       <t xml:space="preserve">, test này là </t>
     </r>
     <r>
       <rPr>
         <i/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <color/>
       </rPr>
       <t xml:space="preserve">in nghiệm, </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <color/>
       </rPr>
       <t xml:space="preserve">test này là </t>
     </r>
     <r>
       <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <color/>
+        <u val="single"/>
       </rPr>
       <t>underline</t>
     </r>
   </si>
   <si>
     <r>
+      <rPr>
+        <color/>
+      </rPr>
       <t xml:space="preserve">test này là </t>
     </r>
     <r>
       <rPr>
         <i/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <color/>
       </rPr>
       <t>in nghiệm</t>
     </r>
   </si>
   <si>
     <r>
+      <rPr>
+        <color/>
+      </rPr>
       <t xml:space="preserve">test này là </t>
     </r>
     <r>
       <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <color/>
+        <u val="single"/>
       </rPr>
       <t>underline</t>
     </r>
   </si>
   <si>
-    <t>text này là double underline</t>
-  </si>
-  <si>
-    <r>
+    <r>
+      <rPr>
+        <color/>
+      </rPr>
+      <t>text này là double underline</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color/>
+      </rPr>
       <t xml:space="preserve">test 1 chữ vừa </t>
     </r>
     <r>
       <rPr>
         <b/>
         <i/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <color/>
       </rPr>
       <t>in đâm vừa in nghiêm</t>
     </r>
   </si>
   <si>
     <r>
-      <t>test này là vừa</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+      <rPr>
+        <color/>
+      </rPr>
+      <t xml:space="preserve">test này là vừa </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <color/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <color/>
+        <u val="single"/>
       </rPr>
       <t>in đậm vừa underline</t>
     </r>
   </si>
   <si>
     <r>
+      <rPr>
+        <color/>
+      </rPr>
       <t xml:space="preserve">test này là vừa </t>
     </r>
     <r>
       <rPr>
         <i/>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <color/>
+        <u val="single"/>
       </rPr>
       <t>italic vừa underline</t>
     </r>
   </si>
   <si>
     <r>
+      <rPr>
+        <color/>
+      </rPr>
       <t xml:space="preserve">test này cả </t>
     </r>
     <r>
       <rPr>
         <b/>
         <i/>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <color/>
+        <u val="single"/>
       </rPr>
       <t>3 thứ</t>
     </r>
   </si>
   <si>
-    <t>đây là chỗ có xuống dòng
-dòng 1
-dòng 2</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">đây là chỗ có xuống dòng in nghiêng, in đâm và underline
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+    <r>
+      <rPr>
+        <color/>
+      </rPr>
+      <t>đây là chỗ có xuống dòng</t>
+    </r>
+    <r>
+      <rPr>
+        <color/>
       </rPr>
       <t>dòng 1</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <color/>
       </rPr>
       <t>dòng 2</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color/>
+      </rPr>
+      <t>đây là chỗ có xuống dòng in nghiêng, in đâm và underline</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <color/>
+      </rPr>
+      <t>dòng 1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <color/>
+      </rPr>
+      <t>dòng 2</t>
+    </r>
+    <r>
+      <rPr>
+        <color/>
+        <u val="single"/>
       </rPr>
       <t>dòng 3</t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">đây là chỗ có xuống dòng in nghiêng, in đâm và underline
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+      <rPr>
+        <color/>
+      </rPr>
+      <t>đây là chỗ có xuống dòng in nghiêng, in đâm và underline</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <color/>
       </rPr>
       <t>dòng 1</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <i/>
+        <color/>
       </rPr>
       <t>dòng 2</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">dòng 3
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <color/>
+        <u val="single"/>
+      </rPr>
+      <t>dòng 3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <color/>
+        <u val="single"/>
       </rPr>
       <t>dòng 4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color/>
+      </rPr>
+      <t xml:space="preserve">test này là </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <color/>
+      </rPr>
+      <t xml:space="preserve">in đậm.    </t>
+    </r>
+    <r>
+      <rPr>
+        <color/>
+      </rPr>
+      <t xml:space="preserve">, test.     này là </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <color/>
+      </rPr>
+      <t xml:space="preserve">in      nghiệm.   , </t>
+    </r>
+    <r>
+      <rPr>
+        <color/>
+      </rPr>
+      <t xml:space="preserve">test này là </t>
+    </r>
+    <r>
+      <rPr>
+        <color/>
+        <u val="single"/>
+      </rPr>
+      <t>underline</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color/>
+      </rPr>
+      <t xml:space="preserve">chỗ này là xuống 2 và </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <color/>
+        <u val="single"/>
+      </rPr>
+      <t xml:space="preserve"> 3</t>
+    </r>
+    <r>
+      <rPr>
+        <color/>
+      </rPr>
+      <t>dòng</t>
+    </r>
+    <r>
+      <rPr>
+        <color/>
+      </rPr>
+      <t>dòng 1</t>
+    </r>
+    <r>
+      <rPr>
+        <color/>
+      </rPr>
+      <t>dòng 2</t>
+    </r>
+    <r>
+      <rPr>
+        <color/>
+      </rPr>
+      <t>dòng 3</t>
     </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <u/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <u/>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -381,20 +383,12 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -650,76 +644,83 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
-    </sheetView>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/imported_test_upload.xlsx
+++ b/imported_test_upload.xlsx
@@ -14,20 +14,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <r>
-      <rPr>
-        <color/>
-      </rPr>
-      <t>description</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color/>
-      </rPr>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <r>
+      <t xml:space="preserve">description
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">test này là </t>
     </r>
     <r>
@@ -38,9 +38,6 @@
       <t>in đậm</t>
     </r>
     <r>
-      <rPr>
-        <color/>
-      </rPr>
       <t xml:space="preserve">, test này là </t>
     </r>
     <r>
@@ -51,9 +48,6 @@
       <t xml:space="preserve">in nghiệm, </t>
     </r>
     <r>
-      <rPr>
-        <color/>
-      </rPr>
       <t xml:space="preserve">test này là </t>
     </r>
     <r>
@@ -63,12 +57,13 @@
       </rPr>
       <t>underline</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color/>
-      </rPr>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">test này là </t>
     </r>
     <r>
@@ -78,12 +73,13 @@
       </rPr>
       <t>in nghiệm</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color/>
-      </rPr>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">test này là </t>
     </r>
     <r>
@@ -93,20 +89,19 @@
       </rPr>
       <t>underline</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color/>
-      </rPr>
-      <t>text này là double underline</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color/>
-      </rPr>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">text này là double underline
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">test 1 chữ vừa </t>
     </r>
     <r>
@@ -117,12 +112,13 @@
       </rPr>
       <t>in đâm vừa in nghiêm</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color/>
-      </rPr>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">test này là vừa </t>
     </r>
     <r>
@@ -141,12 +137,13 @@
       </rPr>
       <t>in đậm vừa underline</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color/>
-      </rPr>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">test này là vừa </t>
     </r>
     <r>
@@ -157,12 +154,13 @@
       </rPr>
       <t>italic vừa underline</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color/>
-      </rPr>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">test này cả </t>
     </r>
     <r>
@@ -174,33 +172,62 @@
       </rPr>
       <t>3 thứ</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color/>
-      </rPr>
-      <t>đây là chỗ có xuống dòng</t>
-    </r>
-    <r>
-      <rPr>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">đây là chỗ có xuống dòng
+dòng 1
+dòng 2
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">đây là chỗ có xuống dòng in nghiêng, in đâm và underline
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <color/>
       </rPr>
       <t>dòng 1</t>
     </r>
     <r>
-      <rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
         <color/>
       </rPr>
       <t>dòng 2</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color/>
-      </rPr>
-      <t>đây là chỗ có xuống dòng in nghiêng, in đâm và underline</t>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <color/>
+        <u val="single"/>
+      </rPr>
+      <t>dòng 3</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">đây là chỗ có xuống dòng in nghiêng, in đâm và underline
+</t>
     </r>
     <r>
       <rPr>
@@ -210,6 +237,10 @@
       <t>dòng 1</t>
     </r>
     <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
       <rPr>
         <i/>
         <color/>
@@ -217,97 +248,72 @@
       <t>dòng 2</t>
     </r>
     <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
       <rPr>
         <color/>
         <u val="single"/>
       </rPr>
       <t>dòng 3</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color/>
-      </rPr>
-      <t>đây là chỗ có xuống dòng in nghiêng, in đâm và underline</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <color/>
-      </rPr>
-      <t>dòng 1</t>
-    </r>
-    <r>
-      <rPr>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <i/>
         <color/>
-      </rPr>
-      <t>dòng 2</t>
-    </r>
-    <r>
-      <rPr>
-        <color/>
-        <u val="single"/>
-      </rPr>
-      <t>dòng 3</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+        <u val="single"/>
+      </rPr>
+      <t>dòng 4</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">test này là </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <color/>
+      </rPr>
+      <t xml:space="preserve">in đậm.    </t>
+    </r>
+    <r>
+      <t xml:space="preserve">, test.     này là </t>
+    </r>
+    <r>
+      <rPr>
         <i/>
         <color/>
-        <u val="single"/>
-      </rPr>
-      <t>dòng 4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color/>
-      </rPr>
+      </rPr>
+      <t xml:space="preserve">in      nghiệm.   , </t>
+    </r>
+    <r>
       <t xml:space="preserve">test này là </t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <color/>
-      </rPr>
-      <t xml:space="preserve">in đậm.    </t>
-    </r>
-    <r>
-      <rPr>
-        <color/>
-      </rPr>
-      <t xml:space="preserve">, test.     này là </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <color/>
-      </rPr>
-      <t xml:space="preserve">in      nghiệm.   , </t>
-    </r>
-    <r>
-      <rPr>
-        <color/>
-      </rPr>
-      <t xml:space="preserve">test này là </t>
-    </r>
-    <r>
-      <rPr>
         <color/>
         <u val="single"/>
       </rPr>
       <t>underline</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color/>
-      </rPr>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">chỗ này là xuống 2 và </t>
     </r>
     <r>
@@ -319,28 +325,108 @@
       <t xml:space="preserve"> 3</t>
     </r>
     <r>
-      <rPr>
-        <color/>
-      </rPr>
-      <t>dòng</t>
-    </r>
-    <r>
-      <rPr>
-        <color/>
-      </rPr>
-      <t>dòng 1</t>
-    </r>
-    <r>
-      <rPr>
-        <color/>
-      </rPr>
-      <t>dòng 2</t>
-    </r>
-    <r>
-      <rPr>
-        <color/>
-      </rPr>
-      <t>dòng 3</t>
+      <t xml:space="preserve">dòng
+dòng 1
+dòng 2
+dòng 3
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <color/>
+      </rPr>
+      <t>ข้อมูลสินค้าเพิ่มเติม</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <color/>
+        <u val="single"/>
+      </rPr>
+      <t>-100%</t>
+    </r>
+    <r>
+      <t xml:space="preserve">Color
+Volume Quantum Dot สีสวยสด 100%
+Quantum HDR เผยรายละเอียดที่ซ่อนอยุ่ในภาพ
+AirSlim ตัวเครื่องบาง  สวยงาม  ประหยัดพื้นที่
+Smart Hub คัดสรรคอนเทนต์บันเทิงรวมไว้ในที่เดียว
+คุณสมบัติเฉพาะ
+แบรนด์ : SAMSUNG
+ซีรีส์
+: Q65C
+ความสูง ( ซม .) : 64.41
+ความกว้าง ( ซม .) : 111.83
+ความลึก ( ซม .) : 2.57
+น้ำหนัก ( กก .) : 10.7
+ขนาดหน้าจอ ( นิ้ว ) : 50"
+ความละเอียดหน้าจอ : 4K (3,840 x 2,160)
+ชนิดหน้าจอ : QLED
+DIGITAL TV BUILT IN (YES/NO) : YES
+SMART TV : TIZEN
+HDR FORMAT : Quantum HDR
+HDMI ( ช่อง ) : 3
+USB ( ช่อง ) : 2
+ประเภทรีโมท : ONE REMOTE
+ความลึก TV รวมขาตั้ง ( ซม .) : 19.91
+ความสูง TV รวมขาตั้ง ( ซม .) : 70.94
+วิธีใช้งาน
+ใช้สำหรับรับชมเพื่อความบันเทิง
+คำแนะนำ
+ถอดปลั๊กสายไฟออกจากเต้ารับไฟฟ้าที่ผนัง  และเช็ดผลิตภัณฑ์ด้วยผ้าแห้งและนุ่ม  เพื่อป้องกันรอยขูดขีด
+ศึกษาคู่มือการติดตั้ง  และวิธีการใช้งานอย่างละเอียด
+ข้อมูลการรับประกัน
+การรับประกัน ( ปี ) : 1
+ข้อมูลติดต่อศูนย์บริการ
+CALL CENTER 1282 บริษัท  ไทยซัมซุง  อิเลคโทรนิคส์  จำกัด  ศูนย์บริการเปิดให้บริการตั้งแต่วันจันทร์ถึงวันเสาร์ 9.00 17.00 น .
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ข้อมูลสินค้าเพิ่มเติม
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">-100% Color Volume Quantum Dot สีสวยสด 100%
+Quantum HDR เผยรายละเอียดที่ซ่อนอยุ่ในภาพ
+AirSlim ตัวเครื่องบาง สวยงาม ประหยัดพื้นที่
+Smart Hub คัดสรรคอนเทนต์บันเทิงรวมไว้ในที่เดียว
+คุณสมบัติเฉพาะ
+แบรนด์ : SAMSUNG
+ซีรีส์ : Q65C
+ความสูง (ซม.) : 64.41
+ความกว้าง (ซม.) : 111.83
+ความลึก (ซม.) : 2.57
+น้ำหนัก (กก.) : 10.7
+ขนาดหน้าจอ (นิ้ว) : 50"
+ความละเอียดหน้าจอ : 4K (3,840 x 2,160)
+ชนิดหน้าจอ : QLED
+DIGITAL TV BUILT IN (YES/NO) : YES
+SMART TV : TIZEN
+HDR FORMAT : Quantum HDR
+HDMI (ช่อง) : 3
+USB (ช่อง) : 2
+ประเภทรีโมท : ONE REMOTE
+ความลึก TV รวมขาตั้ง (ซม.) : 19.91
+ความสูง TV รวมขาตั้ง (ซม.) : 70.94
+วิธีใช้งาน
+ใช้สำหรับรับชมเพื่อความบันเทิง
+คำแนะนำ
+ถอดปลั๊กสายไฟออกจากเต้ารับไฟฟ้าที่ผนัง และเช็ดผลิตภัณฑ์ด้วยผ้าแห้งและนุ่ม เพื่อป้องกันรอยขูดขีด
+ศึกษาคู่มือการติดตั้ง และวิธีการใช้งานอย่างละเอียด
+ข้อมูลการรับประกัน
+การรับประกัน (ปี) : 1
+ข้อมูลติดต่อศูนย์บริการ
+CALL CENTER 1282 บริษัท ไทยซัมซุง อิเลคโทรนิคส์ จำกัด ศูนย์บริการเปิดให้บริการตั้งแต่วันจันทร์ถึงวันเสาร์ 9.00 17.00 น.
+</t>
     </r>
   </si>
 </sst>
@@ -655,70 +741,176 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/imported_test_upload.xlsx
+++ b/imported_test_upload.xlsx
@@ -17,333 +17,283 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <r>
-      <t xml:space="preserve">description
+      <t>description</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">test này là </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <color/>
+      </rPr>
+      <t>in đậm</t>
+    </r>
+    <r>
+      <t xml:space="preserve">, test này là </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <color/>
+      </rPr>
+      <t xml:space="preserve">in nghiệm, </t>
+    </r>
+    <r>
+      <t xml:space="preserve">test này là </t>
+    </r>
+    <r>
+      <rPr>
+        <color/>
+        <u val="single"/>
+      </rPr>
+      <t>underline</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">test này là </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <color/>
+      </rPr>
+      <t>in nghiệm</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">test này là </t>
+    </r>
+    <r>
+      <rPr>
+        <color/>
+        <u val="single"/>
+      </rPr>
+      <t>underline</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>text này là double underline</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">test 1 chữ vừa </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <color/>
+      </rPr>
+      <t>in đâm vừa in nghiêm</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">test này là vừa </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <color/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <color/>
+        <u val="single"/>
+      </rPr>
+      <t>in đậm vừa underline</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">test này là vừa </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <color/>
+        <u val="single"/>
+      </rPr>
+      <t>italic vừa underline</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">test này cả </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <color/>
+        <u val="single"/>
+      </rPr>
+      <t>3 thứ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>đây là chỗ có xuống dòng
+dòng 1
+dòng 2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">đây là chỗ có xuống dòng in nghiêng, in đâm và underline
 </t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">test này là </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <color/>
-      </rPr>
-      <t>in đậm</t>
-    </r>
-    <r>
-      <t xml:space="preserve">, test này là </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <color/>
-      </rPr>
-      <t xml:space="preserve">in nghiệm, </t>
-    </r>
-    <r>
-      <t xml:space="preserve">test này là </t>
-    </r>
-    <r>
-      <rPr>
-        <color/>
-        <u val="single"/>
-      </rPr>
-      <t>underline</t>
+    <r>
+      <rPr>
+        <b/>
+        <color/>
+      </rPr>
+      <t>dòng 1</t>
     </r>
     <r>
       <t xml:space="preserve">
 </t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">test này là </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <color/>
-      </rPr>
-      <t>in nghiệm</t>
+    <r>
+      <rPr>
+        <i/>
+        <color/>
+      </rPr>
+      <t>dòng 2</t>
     </r>
     <r>
       <t xml:space="preserve">
 </t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">test này là </t>
-    </r>
-    <r>
-      <rPr>
-        <color/>
-        <u val="single"/>
-      </rPr>
-      <t>underline</t>
+    <r>
+      <rPr>
+        <color/>
+        <u val="single"/>
+      </rPr>
+      <t>dòng 3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">đây là chỗ có xuống dòng in nghiêng, in đâm và underline
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <color/>
+      </rPr>
+      <t>dòng 1</t>
     </r>
     <r>
       <t xml:space="preserve">
 </t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">text này là double underline
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">test 1 chữ vừa </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <color/>
-      </rPr>
-      <t>in đâm vừa in nghiêm</t>
+    <r>
+      <rPr>
+        <i/>
+        <color/>
+      </rPr>
+      <t>dòng 2</t>
     </r>
     <r>
       <t xml:space="preserve">
 </t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">test này là vừa </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <color/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <color/>
-        <u val="single"/>
-      </rPr>
-      <t>in đậm vừa underline</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
+    <r>
+      <rPr>
+        <color/>
+        <u val="single"/>
+      </rPr>
+      <t xml:space="preserve">dòng 3
 </t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">test này là vừa </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <color/>
-        <u val="single"/>
-      </rPr>
-      <t>italic vừa underline</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">test này cả </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <color/>
-        <u val="single"/>
-      </rPr>
-      <t>3 thứ</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">đây là chỗ có xuống dòng
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <color/>
+        <u val="single"/>
+      </rPr>
+      <t>dòng 4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">test này là </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <color/>
+      </rPr>
+      <t xml:space="preserve">in đậm.    </t>
+    </r>
+    <r>
+      <t xml:space="preserve">, test.     này là </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <color/>
+      </rPr>
+      <t xml:space="preserve">in      nghiệm.   , </t>
+    </r>
+    <r>
+      <t xml:space="preserve">test này là </t>
+    </r>
+    <r>
+      <rPr>
+        <color/>
+        <u val="single"/>
+      </rPr>
+      <t>underline</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">chỗ này là xuống 2 và </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <color/>
+        <u val="single"/>
+      </rPr>
+      <t xml:space="preserve"> 3</t>
+    </r>
+    <r>
+      <t>dòng
 dòng 1
 dòng 2
+dòng 3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <color/>
+      </rPr>
+      <t xml:space="preserve">ข้อมูลสินค้าเพิ่มเติม
 </t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">đây là chỗ có xuống dòng in nghiêng, in đâm và underline
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <color/>
-      </rPr>
-      <t>dòng 1</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <color/>
-      </rPr>
-      <t>dòng 2</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <color/>
-        <u val="single"/>
-      </rPr>
-      <t>dòng 3</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">đây là chỗ có xuống dòng in nghiêng, in đâm và underline
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <color/>
-      </rPr>
-      <t>dòng 1</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <color/>
-      </rPr>
-      <t>dòng 2</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <color/>
-        <u val="single"/>
-      </rPr>
-      <t>dòng 3</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <color/>
-        <u val="single"/>
-      </rPr>
-      <t>dòng 4</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">test này là </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <color/>
-      </rPr>
-      <t xml:space="preserve">in đậm.    </t>
-    </r>
-    <r>
-      <t xml:space="preserve">, test.     này là </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <color/>
-      </rPr>
-      <t xml:space="preserve">in      nghiệm.   , </t>
-    </r>
-    <r>
-      <t xml:space="preserve">test này là </t>
-    </r>
-    <r>
-      <rPr>
-        <color/>
-        <u val="single"/>
-      </rPr>
-      <t>underline</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">chỗ này là xuống 2 và </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <color/>
-        <u val="single"/>
-      </rPr>
-      <t xml:space="preserve"> 3</t>
-    </r>
-    <r>
-      <t xml:space="preserve">dòng
-dòng 1
-dòng 2
-dòng 3
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <color/>
-      </rPr>
-      <t>ข้อมูลสินค้าเพิ่มเติม</t>
-    </r>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
     <r>
       <rPr>
         <b/>
@@ -353,7 +303,7 @@
       <t>-100%</t>
     </r>
     <r>
-      <t xml:space="preserve">Color
+      <t>Color 
 Volume Quantum Dot สีสวยสด 100%
 Quantum HDR เผยรายละเอียดที่ซ่อนอยุ่ในภาพ
 AirSlim ตัวเครื่องบาง  สวยงาม  ประหยัดพื้นที่
@@ -361,7 +311,7 @@
 คุณสมบัติเฉพาะ
 แบรนด์ : SAMSUNG
 ซีรีส์
-: Q65C
+ : Q65C
 ความสูง ( ซม .) : 64.41
 ความกว้าง ( ซม .) : 111.83
 ความลึก ( ซม .) : 2.57
@@ -385,20 +335,16 @@
 ข้อมูลการรับประกัน
 การรับประกัน ( ปี ) : 1
 ข้อมูลติดต่อศูนย์บริการ
-CALL CENTER 1282 บริษัท  ไทยซัมซุง  อิเลคโทรนิคส์  จำกัด  ศูนย์บริการเปิดให้บริการตั้งแต่วันจันทร์ถึงวันเสาร์ 9.00 17.00 น .
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ข้อมูลสินค้าเพิ่มเติม
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">-100% Color Volume Quantum Dot สีสวยสด 100%
+CALL CENTER 1282 บริษัท  ไทยซัมซุง  อิเลคโทรนิคส์  จำกัด  ศูนย์บริการเปิดให้บริการตั้งแต่วันจันทร์ถึงวันเสาร์ 9.00 17.00 น .</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ข้อมูลสินค้าเพิ่มเติม
+-100% Color Volume Quantum Dot สีสวยสด 100%
 Quantum HDR เผยรายละเอียดที่ซ่อนอยุ่ในภาพ
 AirSlim ตัวเครื่องบาง สวยงาม ประหยัดพื้นที่
-Smart Hub คัดสรรคอนเทนต์บันเทิงรวมไว้ในที่เดียว
+Smart Hub คัดสรรคอนเทนต์บันเทิงรวมไว้ในที่เดียว 
 คุณสมบัติเฉพาะ
 แบรนด์ : SAMSUNG
 ซีรีส์ : Q65C
@@ -407,7 +353,7 @@
 ความลึก (ซม.) : 2.57
 น้ำหนัก (กก.) : 10.7
 ขนาดหน้าจอ (นิ้ว) : 50"
-ความละเอียดหน้าจอ : 4K (3,840 x 2,160)
+ความละเอียดหน้าจอ : 4K (3,840 x 2,160) 
 ชนิดหน้าจอ : QLED
 DIGITAL TV BUILT IN (YES/NO) : YES
 SMART TV : TIZEN
@@ -425,8 +371,7 @@
 ข้อมูลการรับประกัน
 การรับประกัน (ปี) : 1
 ข้อมูลติดต่อศูนย์บริการ
-CALL CENTER 1282 บริษัท ไทยซัมซุง อิเลคโทรนิคส์ จำกัด ศูนย์บริการเปิดให้บริการตั้งแต่วันจันทร์ถึงวันเสาร์ 9.00 17.00 น.
-</t>
+CALL CENTER 1282 บริษัท ไทยซัมซุง อิเลคโทรนิคส์ จำกัด ศูนย์บริการเปิดให้บริการตั้งแต่วันจันทร์ถึงวันเสาร์ 9.00 17.00 น.</t>
     </r>
   </si>
 </sst>

--- a/imported_test_upload.xlsx
+++ b/imported_test_upload.xlsx
@@ -279,8 +279,15 @@
       <t xml:space="preserve"> 3</t>
     </r>
     <r>
+      <rPr>
+        <color/>
+        <u val="single"/>
+      </rPr>
+      <t xml:space="preserve"> https://thisisimageurl.com </t>
+    </r>
+    <r>
       <t>dòng
-dòng 1
+dòng 1 
 dòng 2
 dòng 3</t>
     </r>
@@ -340,8 +347,8 @@
   </si>
   <si>
     <r>
-      <t>ข้อมูลสินค้าเพิ่มเติม
--100% Color Volume Quantum Dot สีสวยสด 100%
+      <t>111 ข้อมูลสินค้าเพิ่มเติม
+-100% https://thisisimageurl.com  Color Volume Quantum Dot สีสวยสด 100%
 Quantum HDR เผยรายละเอียดที่ซ่อนอยุ่ในภาพ
 AirSlim ตัวเครื่องบาง สวยงาม ประหยัดพื้นที่
 Smart Hub คัดสรรคอนเทนต์บันเทิงรวมไว้ในที่เดียว 

--- a/imported_test_upload.xlsx
+++ b/imported_test_upload.xlsx
@@ -253,7 +253,7 @@
         <i/>
         <color/>
       </rPr>
-      <t xml:space="preserve">in      nghiệm.   , </t>
+      <t xml:space="preserve">in  https://i1-vnexpress.vnecdn.net/2025/03/05/img8854-1741155266130998826573-7854-2259-1741160609.jpg?w=680&amp;amp;h=408&amp;amp;q=100&amp;amp;dpr=1&amp;amp;fit=crop&amp;amp;s=Qi4R48CY8b-M7JmcihbF9g    nghiệm.   , </t>
     </r>
     <r>
       <t xml:space="preserve">test này là </t>
